--- a/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9918A4-07D3-4818-87B2-9C7C82B25B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
   <si>
     <t>PERIOD</t>
   </si>
@@ -611,12 +610,18 @@
   </si>
   <si>
     <t>MOURNING 6/23-30/2023</t>
+  </si>
+  <si>
+    <t>SL(14-0-0)</t>
+  </si>
+  <si>
+    <t>7/12-31/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1510,7 +1515,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1558,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1622,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1682,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1748,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1811,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1909,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1968,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2033,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2076,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2151,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2337,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2403,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2461,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2527,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2583,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2658,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2701,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2767,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +2823,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2921,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2984,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3033,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3045,38 +3050,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K528" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3085,14 +3090,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3396,7 +3401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3406,7 +3411,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3414,34 +3419,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K528"/>
+  <dimension ref="A2:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A467" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A467" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B473" sqref="B473"/>
+      <selection pane="bottomLeft" activeCell="I473" sqref="I473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3462,7 +3467,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3487,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3504,7 +3509,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3512,7 +3517,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3525,7 +3530,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3542,7 +3547,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3596,12 +3601,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>309.625</v>
+        <v>295.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3623,7 +3628,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -3643,7 +3648,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35004</v>
       </c>
@@ -3663,7 +3668,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35034</v>
       </c>
@@ -3683,7 +3688,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>45</v>
       </c>
@@ -3701,7 +3706,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35065</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35096</v>
@@ -3742,7 +3747,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35125</v>
@@ -3763,7 +3768,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -3784,7 +3789,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -3805,7 +3810,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -3826,7 +3831,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -3847,7 +3852,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -3868,7 +3873,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="50" t="s">
         <v>46</v>
@@ -3886,7 +3891,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35309</v>
@@ -3907,7 +3912,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3928,7 +3933,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f>EDATE(A25,1)</f>
         <v>35370</v>
@@ -3949,7 +3954,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3974,7 +3979,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>48</v>
       </c>
@@ -3992,7 +3997,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35431</v>
       </c>
@@ -4012,7 +4017,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35462</v>
@@ -4033,7 +4038,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A43" si="1">EDATE(A30,1)</f>
         <v>35490</v>
@@ -4054,7 +4059,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -4075,7 +4080,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -4100,7 +4105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4118,7 +4123,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35582</v>
@@ -4143,7 +4148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4161,7 +4166,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35612</v>
@@ -4182,7 +4187,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4203,7 +4208,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4224,7 +4229,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4249,7 +4254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4267,7 +4272,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35735</v>
@@ -4288,7 +4293,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4309,7 +4314,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>54</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35796</v>
       </c>
@@ -4347,7 +4352,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35827</v>
@@ -4368,7 +4373,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ref="A47" si="2">EDATE(A46,1)</f>
         <v>35855</v>
@@ -4393,7 +4398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
       <c r="B48" s="11" t="s">
         <v>51</v>
@@ -4415,7 +4420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4440,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>60</v>
       </c>
@@ -4455,7 +4460,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>35977</v>
       </c>
@@ -4475,7 +4480,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36008</v>
@@ -4496,7 +4501,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A55" si="3">EDATE(A52,1)</f>
         <v>36039</v>
@@ -4517,7 +4522,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4538,7 +4543,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4559,7 +4564,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>36130</v>
@@ -4580,7 +4585,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>62</v>
       </c>
@@ -4598,7 +4603,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -4618,7 +4623,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>36192</v>
@@ -4639,7 +4644,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A68" si="4">EDATE(A59,1)</f>
         <v>36220</v>
@@ -4664,7 +4669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4682,7 +4687,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36251</v>
@@ -4707,7 +4712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4725,7 +4730,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -4750,7 +4755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4768,7 +4773,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36312</v>
@@ -4789,7 +4794,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4810,7 +4815,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -4835,7 +4840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4853,7 +4858,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -4878,7 +4883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4896,7 +4901,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36434</v>
@@ -4919,7 +4924,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>55</v>
@@ -4941,7 +4946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4959,7 +4964,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36465</v>
@@ -4984,7 +4989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -5002,7 +5007,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36495</v>
@@ -5023,7 +5028,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>73</v>
       </c>
@@ -5041,7 +5046,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5061,7 +5066,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5086,7 +5091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>75</v>
@@ -5108,7 +5113,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>76</v>
@@ -5128,7 +5133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5146,7 +5151,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36586</v>
@@ -5171,7 +5176,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5189,7 +5194,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36617</v>
@@ -5214,7 +5219,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5232,7 +5237,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36647</v>
@@ -5253,7 +5258,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A96" si="5">EDATE(A88,1)</f>
         <v>36678</v>
@@ -5274,7 +5279,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5295,7 +5300,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5316,7 +5321,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5341,7 +5346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -5361,7 +5366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5379,7 +5384,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>36800</v>
@@ -5400,7 +5405,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5421,7 +5426,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>36861</v>
@@ -5446,7 +5451,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>81</v>
       </c>
@@ -5464,7 +5469,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>36892</v>
       </c>
@@ -5484,7 +5489,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A99,1)</f>
         <v>36923</v>
@@ -5507,7 +5512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5525,7 +5530,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36951</v>
@@ -5546,7 +5551,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A108" si="6">EDATE(A102,1)</f>
         <v>36982</v>
@@ -5567,7 +5572,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5588,7 +5593,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5609,7 +5614,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5630,7 +5635,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5651,7 +5656,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5676,7 +5681,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5698,7 +5703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>76</v>
@@ -5718,7 +5723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5736,7 +5741,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>37165</v>
@@ -5761,7 +5766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5779,7 +5784,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -5804,7 +5809,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>76</v>
@@ -5824,7 +5829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5842,7 +5847,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -5863,7 +5868,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>87</v>
       </c>
@@ -5881,7 +5886,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5923,7 +5928,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -5944,7 +5949,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" ref="A122:A132" si="7">EDATE(A121,1)</f>
         <v>37316</v>
@@ -5965,7 +5970,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -5986,7 +5991,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6011,7 +6016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6029,7 +6034,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37408</v>
@@ -6050,7 +6055,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6071,7 +6076,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6092,7 +6097,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6113,7 +6118,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6134,7 +6139,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6155,7 +6160,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6182,7 +6187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>69</v>
@@ -6202,7 +6207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
         <v>92</v>
       </c>
@@ -6220,7 +6225,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37622</v>
       </c>
@@ -6240,7 +6245,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A135,1)</f>
         <v>37653</v>
@@ -6265,7 +6270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6283,7 +6288,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>37681</v>
@@ -6304,7 +6309,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A148" si="8">EDATE(A138,1)</f>
         <v>37712</v>
@@ -6325,7 +6330,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6352,7 +6357,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6374,7 +6379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37773</v>
@@ -6395,7 +6400,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6416,7 +6421,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6437,7 +6442,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37865</v>
@@ -6464,7 +6469,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A145,1)</f>
         <v>37895</v>
@@ -6491,7 +6496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>37926</v>
@@ -6512,7 +6517,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>37956</v>
@@ -6537,7 +6542,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -6555,7 +6560,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6575,7 +6580,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6596,7 +6601,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152:A161" si="9">EDATE(A151,1)</f>
         <v>38047</v>
@@ -6617,7 +6622,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -6638,7 +6643,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -6659,7 +6664,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -6680,7 +6685,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -6707,7 +6712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>38200</v>
@@ -6728,7 +6733,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -6749,7 +6754,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -6770,7 +6775,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="9"/>
         <v>38292</v>
@@ -6791,7 +6796,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -6816,7 +6821,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="49" t="s">
         <v>102</v>
       </c>
@@ -6834,7 +6839,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38353</v>
       </c>
@@ -6854,7 +6859,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A163,1)</f>
         <v>38384</v>
@@ -6875,7 +6880,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" ref="A165:A174" si="10">EDATE(A164,1)</f>
         <v>38412</v>
@@ -6896,7 +6901,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -6917,7 +6922,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -6938,7 +6943,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -6959,7 +6964,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -6980,7 +6985,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7001,7 +7006,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7022,7 +7027,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7043,7 +7048,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7064,7 +7069,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7089,7 +7094,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="49" t="s">
         <v>103</v>
       </c>
@@ -7107,7 +7112,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38718</v>
       </c>
@@ -7127,7 +7132,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <f>EDATE(A176,1)</f>
         <v>38749</v>
@@ -7148,7 +7153,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="15"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
         <f t="shared" ref="A178:A187" si="11">EDATE(A177,1)</f>
         <v>38777</v>
@@ -7169,7 +7174,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7190,7 +7195,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7211,7 +7216,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7232,7 +7237,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7253,7 +7258,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7274,7 +7279,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7295,7 +7300,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -7316,7 +7321,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -7337,7 +7342,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -7362,7 +7367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -7384,7 +7389,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="57" t="s">
         <v>106</v>
       </c>
@@ -7402,7 +7407,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39083</v>
       </c>
@@ -7422,7 +7427,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39114</v>
@@ -7443,7 +7448,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A207" si="12">EDATE(A191,1)</f>
         <v>39142</v>
@@ -7466,7 +7471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7484,7 +7489,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f>EDATE(A192,1)</f>
         <v>39173</v>
@@ -7505,7 +7510,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>39203</v>
@@ -7526,7 +7531,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -7551,7 +7556,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7569,7 +7574,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39264</v>
@@ -7594,7 +7599,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>76</v>
@@ -7614,7 +7619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7632,7 +7637,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39295</v>
@@ -7659,7 +7664,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>109</v>
@@ -7681,7 +7686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>75</v>
@@ -7703,7 +7708,7 @@
         <v>46966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39326</v>
@@ -7724,7 +7729,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>39356</v>
@@ -7749,7 +7754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>39387</v>
@@ -7770,7 +7775,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>39417</v>
@@ -7791,7 +7796,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -7809,7 +7814,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39448</v>
       </c>
@@ -7829,7 +7834,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>39479</v>
@@ -7850,7 +7855,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" ref="A211:A218" si="13">EDATE(A210,1)</f>
         <v>39508</v>
@@ -7871,7 +7876,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -7892,7 +7897,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -7913,7 +7918,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -7936,7 +7941,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -7954,7 +7959,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>39630</v>
@@ -7975,7 +7980,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -7996,7 +8001,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -8021,7 +8026,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8039,7 +8044,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39722</v>
@@ -8064,7 +8069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8082,7 +8087,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -8105,7 +8110,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8123,7 +8128,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39783</v>
@@ -8144,7 +8149,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="49" t="s">
         <v>117</v>
       </c>
@@ -8162,7 +8167,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -8182,7 +8187,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>39845</v>
@@ -8205,7 +8210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8223,7 +8228,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39873</v>
@@ -8246,7 +8251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -8264,7 +8269,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>39904</v>
@@ -8285,7 +8290,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A239" si="14">EDATE(A231,1)</f>
         <v>39934</v>
@@ -8306,7 +8311,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8329,7 +8334,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8347,7 +8352,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39995</v>
@@ -8368,7 +8373,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8389,7 +8394,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -8410,7 +8415,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -8431,7 +8436,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -8452,7 +8457,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A239,1)</f>
         <v>40148</v>
@@ -8477,7 +8482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8495,7 +8500,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="49" t="s">
         <v>122</v>
       </c>
@@ -8513,7 +8518,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40179</v>
       </c>
@@ -8537,7 +8542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8555,7 +8560,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40210</v>
@@ -8580,7 +8585,7 @@
         <v>47119</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -8600,7 +8605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>75</v>
@@ -8622,7 +8627,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>76</v>
@@ -8642,7 +8647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8660,7 +8665,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A245,1)</f>
         <v>40238</v>
@@ -8681,7 +8686,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" ref="A251:A256" si="15">EDATE(A250,1)</f>
         <v>40269</v>
@@ -8702,7 +8707,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -8723,7 +8728,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -8744,7 +8749,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -8765,7 +8770,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -8786,7 +8791,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -8811,7 +8816,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>75</v>
@@ -8833,7 +8838,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>75</v>
@@ -8855,7 +8860,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8873,7 +8878,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>40452</v>
@@ -8898,7 +8903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -8916,7 +8921,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>40483</v>
@@ -8939,7 +8944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8957,7 +8962,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40513</v>
@@ -8978,7 +8983,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="49" t="s">
         <v>130</v>
       </c>
@@ -8996,7 +9001,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40544</v>
       </c>
@@ -9018,7 +9023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9036,7 +9041,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40575</v>
@@ -9057,7 +9062,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" ref="A269:A281" si="16">EDATE(A268,1)</f>
         <v>40603</v>
@@ -9078,7 +9083,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9099,7 +9104,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9124,7 +9129,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40695</v>
@@ -9147,7 +9152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>133</v>
@@ -9169,7 +9174,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>80</v>
@@ -9191,7 +9196,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -9209,7 +9214,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A272,1)</f>
         <v>40725</v>
@@ -9230,7 +9235,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9253,7 +9258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>47</v>
@@ -9275,7 +9280,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9293,7 +9298,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A277,1)</f>
         <v>40787</v>
@@ -9314,7 +9319,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9339,7 +9344,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>138</v>
@@ -9361,7 +9366,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9379,7 +9384,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>40848</v>
@@ -9404,7 +9409,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9422,7 +9427,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40878</v>
@@ -9447,7 +9452,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>55</v>
@@ -9469,7 +9474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>138</v>
@@ -9491,7 +9496,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9509,7 +9514,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>143</v>
       </c>
@@ -9527,7 +9532,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40909</v>
       </c>
@@ -9547,7 +9552,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A291,1)</f>
         <v>40940</v>
@@ -9570,7 +9575,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>55</v>
@@ -9592,7 +9597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>105</v>
@@ -9614,7 +9619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>40969</v>
@@ -9635,7 +9640,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" ref="A296:A314" si="17">EDATE(A295,1)</f>
         <v>41000</v>
@@ -9658,7 +9663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13">
@@ -9676,7 +9681,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41030</v>
@@ -9701,7 +9706,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9719,7 +9724,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41061</v>
@@ -9744,7 +9749,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9764,7 +9769,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13">
@@ -9782,7 +9787,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>41091</v>
@@ -9803,7 +9808,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9824,7 +9829,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -9849,7 +9854,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>80</v>
@@ -9871,7 +9876,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>75</v>
@@ -9893,7 +9898,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>75</v>
@@ -9915,7 +9920,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -9933,7 +9938,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A305,1)</f>
         <v>41183</v>
@@ -9958,7 +9963,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>75</v>
@@ -9978,7 +9983,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9996,7 +10001,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41214</v>
@@ -10017,7 +10022,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -10042,7 +10047,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10064,7 +10069,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -10082,7 +10087,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>150</v>
       </c>
@@ -10100,7 +10105,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41275</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>80</v>
@@ -10144,7 +10149,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>76</v>
@@ -10164,7 +10169,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10182,7 +10187,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>41306</v>
@@ -10207,7 +10212,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>75</v>
@@ -10229,7 +10234,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>138</v>
@@ -10251,7 +10256,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10269,7 +10274,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A322,1)</f>
         <v>41334</v>
@@ -10294,7 +10299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -10312,7 +10317,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>41365</v>
@@ -10333,7 +10338,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="18">EDATE(A328,1)</f>
         <v>41395</v>
@@ -10354,7 +10359,7 @@
       <c r="J329" s="12"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -10379,7 +10384,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10397,7 +10402,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41456</v>
@@ -10418,7 +10423,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -10439,7 +10444,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -10460,7 +10465,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="18"/>
         <v>41548</v>
@@ -10485,7 +10490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10503,7 +10508,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>41579</v>
@@ -10524,7 +10529,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -10545,7 +10550,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="49" t="s">
         <v>157</v>
       </c>
@@ -10563,7 +10568,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41640</v>
       </c>
@@ -10583,7 +10588,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>41671</v>
@@ -10604,7 +10609,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A351" si="19">EDATE(A341,1)</f>
         <v>41699</v>
@@ -10625,7 +10630,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41730</v>
@@ -10646,7 +10651,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10667,7 +10672,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="19"/>
         <v>41791</v>
@@ -10688,7 +10693,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -10709,7 +10714,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10730,7 +10735,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10751,7 +10756,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10778,7 +10783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10799,7 +10804,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -10820,7 +10825,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="49" t="s">
         <v>156</v>
       </c>
@@ -10838,7 +10843,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42005</v>
       </c>
@@ -10858,7 +10863,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A353,1)</f>
         <v>42036</v>
@@ -10879,7 +10884,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A364" si="20">EDATE(A354,1)</f>
         <v>42064</v>
@@ -10900,7 +10905,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -10921,7 +10926,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -10942,7 +10947,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42156</v>
@@ -10963,7 +10968,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -10984,7 +10989,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -11005,7 +11010,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11026,7 +11031,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11053,7 +11058,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A362,1)</f>
         <v>42309</v>
@@ -11074,7 +11079,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -11099,7 +11104,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="49" t="s">
         <v>159</v>
       </c>
@@ -11117,7 +11122,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42370</v>
       </c>
@@ -11137,7 +11142,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>42401</v>
@@ -11158,7 +11163,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A378" si="21">EDATE(A367,1)</f>
         <v>42430</v>
@@ -11181,7 +11186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13">
@@ -11199,7 +11204,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42461</v>
@@ -11220,7 +11225,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -11241,7 +11246,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -11262,7 +11267,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -11283,7 +11288,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -11304,7 +11309,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -11325,7 +11330,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -11346,7 +11351,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -11367,7 +11372,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -11392,7 +11397,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>66</v>
@@ -11414,7 +11419,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -11432,7 +11437,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="49" t="s">
         <v>164</v>
       </c>
@@ -11450,7 +11455,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42736</v>
       </c>
@@ -11470,7 +11475,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A382,1)</f>
         <v>42767</v>
@@ -11491,7 +11496,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" ref="A384:A393" si="22">EDATE(A383,1)</f>
         <v>42795</v>
@@ -11512,7 +11517,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -11533,7 +11538,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -11554,7 +11559,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -11575,7 +11580,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -11596,7 +11601,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -11617,7 +11622,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -11638,7 +11643,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -11659,7 +11664,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -11680,7 +11685,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -11705,7 +11710,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>69</v>
@@ -11725,7 +11730,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -11743,7 +11748,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="49" t="s">
         <v>167</v>
       </c>
@@ -11761,7 +11766,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43101</v>
       </c>
@@ -11781,7 +11786,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>43132</v>
@@ -11802,7 +11807,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A411" si="23">EDATE(A398,1)</f>
         <v>43160</v>
@@ -11827,7 +11832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>76</v>
@@ -11847,7 +11852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -11865,7 +11870,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>43191</v>
@@ -11886,7 +11891,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -11907,7 +11912,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -11928,7 +11933,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -11949,7 +11954,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -11970,7 +11975,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -11991,7 +11996,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -12016,7 +12021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12034,7 +12039,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43405</v>
@@ -12055,7 +12060,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="23"/>
         <v>43435</v>
@@ -12076,7 +12081,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="49" t="s">
         <v>170</v>
       </c>
@@ -12094,7 +12099,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12114,7 +12119,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A413,1)</f>
         <v>43497</v>
@@ -12135,7 +12140,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" ref="A415:A424" si="24">EDATE(A414,1)</f>
         <v>43525</v>
@@ -12156,7 +12161,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="24"/>
         <v>43556</v>
@@ -12177,7 +12182,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -12198,7 +12203,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -12219,7 +12224,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -12240,7 +12245,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -12261,7 +12266,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -12282,7 +12287,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -12303,7 +12308,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A422,1)</f>
         <v>43770</v>
@@ -12324,7 +12329,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -12349,7 +12354,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="49" t="s">
         <v>171</v>
       </c>
@@ -12367,7 +12372,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43831</v>
       </c>
@@ -12389,7 +12394,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -12407,7 +12412,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43862</v>
@@ -12428,7 +12433,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" ref="A429:A437" si="25">EDATE(A428,1)</f>
         <v>43891</v>
@@ -12449,7 +12454,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -12470,7 +12475,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -12491,7 +12496,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -12512,7 +12517,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -12533,7 +12538,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -12554,7 +12559,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -12575,7 +12580,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
         <v>44105</v>
@@ -12596,7 +12601,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -12617,7 +12622,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f>EDATE(A437,1)</f>
         <v>44166</v>
@@ -12642,7 +12647,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="49" t="s">
         <v>174</v>
       </c>
@@ -12660,7 +12665,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44197</v>
       </c>
@@ -12680,7 +12685,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A440,1)</f>
         <v>44228</v>
@@ -12701,7 +12706,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
         <v>44256</v>
@@ -12722,7 +12727,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -12743,7 +12748,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -12764,7 +12769,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -12785,7 +12790,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -12806,7 +12811,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -12827,7 +12832,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -12848,7 +12853,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -12869,7 +12874,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="26"/>
         <v>44501</v>
@@ -12890,7 +12895,7 @@
       <c r="J450" s="12"/>
       <c r="K450" s="15"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="26"/>
         <v>44531</v>
@@ -12915,7 +12920,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="49" t="s">
         <v>175</v>
       </c>
@@ -12933,7 +12938,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44562</v>
       </c>
@@ -12953,7 +12958,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
         <v>44593</v>
@@ -12974,7 +12979,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f>EDATE(A454,1)</f>
         <v>44621</v>
@@ -13001,7 +13006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44652</v>
       </c>
@@ -13021,7 +13026,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44682</v>
       </c>
@@ -13041,7 +13046,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44713</v>
       </c>
@@ -13061,7 +13066,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44743</v>
       </c>
@@ -13081,7 +13086,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44774</v>
       </c>
@@ -13101,7 +13106,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44805</v>
       </c>
@@ -13121,7 +13126,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44835</v>
       </c>
@@ -13141,7 +13146,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>44866</v>
       </c>
@@ -13161,7 +13166,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44896</v>
       </c>
@@ -13181,7 +13186,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="49" t="s">
         <v>177</v>
       </c>
@@ -13199,7 +13204,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44927</v>
       </c>
@@ -13219,7 +13224,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44958</v>
       </c>
@@ -13245,7 +13250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44986</v>
       </c>
@@ -13265,7 +13270,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>45017</v>
       </c>
@@ -13291,7 +13296,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45047</v>
       </c>
@@ -13317,7 +13322,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45078</v>
       </c>
@@ -13343,7 +13348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45108</v>
       </c>
@@ -13367,11 +13372,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B473" s="20"/>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40"/>
+      <c r="B473" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="C473" s="13"/>
       <c r="D473" s="39"/>
       <c r="E473" s="9"/>
@@ -13380,14 +13385,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H473" s="39"/>
+      <c r="H473" s="39">
+        <v>14</v>
+      </c>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K473" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13403,9 +13412,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13421,9 +13430,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -13439,45 +13448,45 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40">
         <v>45261</v>
       </c>
-      <c r="B477" s="15"/>
-      <c r="C477" s="42"/>
-      <c r="D477" s="43"/>
-      <c r="E477" s="56"/>
-      <c r="F477" s="15"/>
-      <c r="G477" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H477" s="43"/>
-      <c r="I477" s="56"/>
-      <c r="J477" s="12"/>
-      <c r="K477" s="15"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A478" s="40">
+      <c r="B478" s="15"/>
+      <c r="C478" s="42"/>
+      <c r="D478" s="43"/>
+      <c r="E478" s="56"/>
+      <c r="F478" s="15"/>
+      <c r="G478" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="43"/>
+      <c r="I478" s="56"/>
+      <c r="J478" s="12"/>
+      <c r="K478" s="15"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40">
         <v>45292</v>
-      </c>
-      <c r="B478" s="20"/>
-      <c r="C478" s="13"/>
-      <c r="D478" s="39"/>
-      <c r="E478" s="9"/>
-      <c r="F478" s="20"/>
-      <c r="G478" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H478" s="39"/>
-      <c r="I478" s="9"/>
-      <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A479" s="40">
-        <v>45323</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -13493,9 +13502,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -13511,9 +13520,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -13529,9 +13538,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -13547,9 +13556,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -13565,9 +13574,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -13583,9 +13592,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13601,9 +13610,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -13619,9 +13628,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -13637,9 +13646,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13655,9 +13664,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -13673,9 +13682,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -13691,9 +13700,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13709,9 +13718,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13727,9 +13736,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13745,9 +13754,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13763,9 +13772,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13781,9 +13790,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13799,9 +13808,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13817,9 +13826,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13835,9 +13844,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13853,9 +13862,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13871,9 +13880,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13889,9 +13898,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13907,9 +13916,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13925,9 +13934,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13943,9 +13952,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13961,9 +13970,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13979,9 +13988,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13997,9 +14006,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14015,9 +14024,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14033,9 +14042,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14051,9 +14060,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14069,9 +14078,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14087,9 +14096,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14105,9 +14114,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14123,9 +14132,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14141,9 +14150,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14159,9 +14168,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14177,9 +14186,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -14195,9 +14204,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -14213,9 +14222,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -14231,9 +14240,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -14249,9 +14258,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14267,9 +14276,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14285,9 +14294,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14303,9 +14312,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14321,9 +14330,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14339,9 +14348,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14357,9 +14366,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14374,6 +14383,24 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14390,10 +14417,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14416,7 +14443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14424,21 +14451,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -14451,7 +14478,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14480,7 +14507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14506,17 +14533,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -14540,10 +14567,10 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>562.25</v>
+        <v>548.25</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14571,7 +14598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14597,7 +14624,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14623,7 +14650,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14649,7 +14676,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14675,7 +14702,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14701,7 +14728,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14727,7 +14754,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14753,7 +14780,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14773,7 +14800,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14793,7 +14820,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14813,7 +14840,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14834,7 +14861,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14855,7 +14882,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14876,7 +14903,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14897,7 +14924,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14918,7 +14945,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14939,7 +14966,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14960,7 +14987,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14981,7 +15008,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15002,7 +15029,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15023,7 +15050,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15044,7 +15071,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15065,7 +15092,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15086,7 +15113,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15107,7 +15134,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15128,7 +15155,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15149,7 +15176,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15170,7 +15197,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15191,7 +15218,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15212,7 +15239,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15233,7 +15260,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15242,7 +15269,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15251,7 +15278,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15260,7 +15287,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15269,7 +15296,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15278,7 +15305,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15287,7 +15314,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15296,7 +15323,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15305,7 +15332,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15314,7 +15341,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15323,7 +15350,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15332,7 +15359,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15341,7 +15368,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15350,7 +15377,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15359,7 +15386,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15368,7 +15395,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15377,7 +15404,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15386,7 +15413,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15395,7 +15422,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15404,7 +15431,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15413,7 +15440,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15422,7 +15449,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15431,7 +15458,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15440,7 +15467,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15449,7 +15476,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15458,7 +15485,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15467,7 +15494,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15476,7 +15503,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15485,7 +15512,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15494,7 +15521,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
+++ b/REGULAR/OJT/MIRANDA, BIENVENIDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="196">
   <si>
     <t>PERIOD</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>7/12-31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1521,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1564,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1628,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1688,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1754,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1817,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1915,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1974,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2039,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2082,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2157,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2343,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2409,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2467,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2533,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2589,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2664,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2707,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2773,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2829,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2927,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2990,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,6 +3057,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K529"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3426,9 +3433,9 @@
   <dimension ref="A2:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="86" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A467" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A478"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I473" sqref="I473"/>
+      <selection pane="bottomLeft" activeCell="A427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,7 +3598,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>252.625</v>
+        <v>251.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3601,7 +3608,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>295.625</v>
+        <v>310.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4569,11 +4576,15 @@
         <f>EDATE(A55,1)</f>
         <v>36130</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>5</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -4824,16 +4835,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>3</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="39">
-        <v>3</v>
-      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
@@ -5687,16 +5698,16 @@
         <v>49</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
+      <c r="D109" s="39">
+        <v>2</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H109" s="39">
-        <v>2</v>
-      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
@@ -9605,7 +9616,9 @@
       <c r="C294" s="13">
         <v>1.25</v>
       </c>
-      <c r="D294" s="39"/>
+      <c r="D294" s="39">
+        <v>2</v>
+      </c>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
       <c r="G294" s="13">
@@ -9976,7 +9989,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H311" s="39"/>
+      <c r="H311" s="39">
+        <v>1</v>
+      </c>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="55">
@@ -12379,13 +12394,15 @@
       <c r="B426" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C426" s="13"/>
+      <c r="C426" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D426" s="39"/>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G426" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
@@ -12395,7 +12412,10 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
+      <c r="A427" s="40">
+        <f>EDATE(A426,1)</f>
+        <v>43862</v>
+      </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -12414,8 +12434,8 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <f>EDATE(A426,1)</f>
-        <v>43862</v>
+        <f t="shared" ref="A428:A436" si="25">EDATE(A427,1)</f>
+        <v>43891</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -12435,8 +12455,8 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <f t="shared" ref="A429:A437" si="25">EDATE(A428,1)</f>
-        <v>43891</v>
+        <f t="shared" si="25"/>
+        <v>43922</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13">
@@ -12457,7 +12477,7 @@
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -12478,7 +12498,7 @@
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -12499,7 +12519,7 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12520,7 +12540,7 @@
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="25"/>
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13">
@@ -12541,7 +12561,7 @@
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="25"/>
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -12562,7 +12582,7 @@
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13">
@@ -12583,7 +12603,7 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13">
@@ -12603,14 +12623,18 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <f t="shared" si="25"/>
-        <v>44136</v>
-      </c>
-      <c r="B437" s="20"/>
+        <f>EDATE(A436,1)</f>
+        <v>44166</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C437" s="13">
         <v>1.25</v>
       </c>
-      <c r="D437" s="39"/>
+      <c r="D437" s="39">
+        <v>5</v>
+      </c>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
       <c r="G437" s="13">
@@ -12623,24 +12647,17 @@
       <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="40">
-        <f>EDATE(A437,1)</f>
-        <v>44166</v>
-      </c>
-      <c r="B438" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C438" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D438" s="39">
-        <v>5</v>
-      </c>
+      <c r="A438" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
@@ -12648,17 +12665,19 @@
       <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="49" t="s">
-        <v>174</v>
+      <c r="A439" s="40">
+        <v>44197</v>
       </c>
       <c r="B439" s="20"/>
-      <c r="C439" s="13"/>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D439" s="39"/>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
@@ -12667,7 +12686,8 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>44197</v>
+        <f>EDATE(A439,1)</f>
+        <v>44228</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13">
@@ -12687,8 +12707,8 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <f>EDATE(A440,1)</f>
-        <v>44228</v>
+        <f t="shared" ref="A441:A450" si="26">EDATE(A440,1)</f>
+        <v>44256</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -12708,8 +12728,8 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
-        <v>44256</v>
+        <f t="shared" si="26"/>
+        <v>44287</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -12730,7 +12750,7 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="26"/>
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13">
@@ -12751,7 +12771,7 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="26"/>
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13">
@@ -12772,7 +12792,7 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="26"/>
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -12793,7 +12813,7 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="26"/>
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -12814,7 +12834,7 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="26"/>
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13">
@@ -12835,7 +12855,7 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="26"/>
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -12856,64 +12876,61 @@
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="26"/>
-        <v>44470</v>
-      </c>
-      <c r="B449" s="20"/>
+        <v>44501</v>
+      </c>
+      <c r="B449" s="15"/>
       <c r="C449" s="13">
         <v>1.25</v>
       </c>
-      <c r="D449" s="39"/>
-      <c r="E449" s="9"/>
-      <c r="F449" s="20"/>
-      <c r="G449" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H449" s="39"/>
-      <c r="I449" s="9"/>
-      <c r="J449" s="11"/>
-      <c r="K449" s="20"/>
+      <c r="D449" s="43"/>
+      <c r="E449" s="56"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H449" s="43"/>
+      <c r="I449" s="56"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="15"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="26"/>
-        <v>44501</v>
-      </c>
-      <c r="B450" s="15"/>
+        <v>44531</v>
+      </c>
+      <c r="B450" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C450" s="13">
         <v>1.25</v>
       </c>
-      <c r="D450" s="43"/>
-      <c r="E450" s="56"/>
-      <c r="F450" s="15"/>
-      <c r="G450" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H450" s="43"/>
-      <c r="I450" s="56"/>
-      <c r="J450" s="12"/>
-      <c r="K450" s="15"/>
+      <c r="D450" s="39">
+        <v>5</v>
+      </c>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="40">
-        <f t="shared" si="26"/>
-        <v>44531</v>
-      </c>
-      <c r="B451" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C451" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D451" s="39">
-        <v>5</v>
-      </c>
+      <c r="A451" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="39"/>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G451" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
@@ -12921,17 +12938,19 @@
       <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="49" t="s">
-        <v>175</v>
+      <c r="A452" s="40">
+        <v>44562</v>
       </c>
       <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
@@ -12940,7 +12959,8 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>44562</v>
+        <f>EDATE(A452,1)</f>
+        <v>44593</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -12961,54 +12981,53 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
-        <v>44593</v>
-      </c>
-      <c r="B454" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B454" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="C454" s="13">
         <v>1.25</v>
       </c>
-      <c r="D454" s="39"/>
-      <c r="E454" s="9"/>
-      <c r="F454" s="20"/>
-      <c r="G454" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H454" s="39"/>
-      <c r="I454" s="9"/>
-      <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="D454" s="43">
+        <v>5</v>
+      </c>
+      <c r="E454" s="56"/>
+      <c r="F454" s="15"/>
+      <c r="G454" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H454" s="43"/>
+      <c r="I454" s="56"/>
+      <c r="J454" s="12"/>
+      <c r="K454" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <f>EDATE(A454,1)</f>
-        <v>44621</v>
-      </c>
-      <c r="B455" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>44652</v>
+      </c>
+      <c r="B455" s="20"/>
       <c r="C455" s="13">
         <v>1.25</v>
       </c>
-      <c r="D455" s="43">
-        <v>5</v>
-      </c>
-      <c r="E455" s="56"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H455" s="43"/>
-      <c r="I455" s="56"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="D455" s="39"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H455" s="39"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -13028,7 +13047,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13">
@@ -13048,7 +13067,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13">
@@ -13068,7 +13087,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13">
@@ -13088,7 +13107,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13108,7 +13127,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -13128,7 +13147,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -13148,7 +13167,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13">
@@ -13167,19 +13186,17 @@
       <c r="K463" s="20"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40">
-        <v>44896</v>
+      <c r="A464" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="B464" s="20"/>
-      <c r="C464" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C464" s="13"/>
       <c r="D464" s="39"/>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
@@ -13187,17 +13204,19 @@
       <c r="K464" s="20"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="49" t="s">
-        <v>177</v>
+      <c r="A465" s="40">
+        <v>44957</v>
       </c>
       <c r="B465" s="20"/>
-      <c r="C465" s="13"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D465" s="39"/>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
@@ -13206,13 +13225,17 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B466" s="20"/>
+        <v>44985</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="C466" s="13">
         <v>1.25</v>
       </c>
-      <c r="D466" s="39"/>
+      <c r="D466" s="39">
+        <v>5</v>
+      </c>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
       <c r="G466" s="13">
@@ -13222,21 +13245,19 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
+      <c r="K466" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B467" s="20" t="s">
-        <v>178</v>
-      </c>
+        <v>45016</v>
+      </c>
+      <c r="B467" s="20"/>
       <c r="C467" s="13">
         <v>1.25</v>
       </c>
-      <c r="D467" s="39">
-        <v>5</v>
-      </c>
+      <c r="D467" s="39"/>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
       <c r="G467" s="13">
@@ -13246,62 +13267,66 @@
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B468" s="20"/>
+        <v>45046</v>
+      </c>
+      <c r="B468" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="C468" s="13">
         <v>1.25</v>
       </c>
-      <c r="D468" s="39"/>
-      <c r="E468" s="9"/>
-      <c r="F468" s="20"/>
-      <c r="G468" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H468" s="39"/>
-      <c r="I468" s="9"/>
-      <c r="J468" s="11"/>
-      <c r="K468" s="20"/>
+      <c r="D468" s="43">
+        <v>9</v>
+      </c>
+      <c r="E468" s="56"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H468" s="43"/>
+      <c r="I468" s="56"/>
+      <c r="J468" s="12"/>
+      <c r="K468" s="15" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B469" s="15" t="s">
-        <v>184</v>
+        <v>45077</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
       </c>
-      <c r="D469" s="43">
-        <v>9</v>
-      </c>
-      <c r="E469" s="56"/>
-      <c r="F469" s="15"/>
-      <c r="G469" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H469" s="43"/>
-      <c r="I469" s="56"/>
-      <c r="J469" s="12"/>
-      <c r="K469" s="15" t="s">
-        <v>185</v>
+      <c r="D469" s="39"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H469" s="39">
+        <v>10</v>
+      </c>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
@@ -13314,98 +13339,96 @@
         <v>1.25</v>
       </c>
       <c r="H470" s="39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45078</v>
+        <v>45138</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
       </c>
-      <c r="D471" s="39"/>
+      <c r="D471" s="39">
+        <v>6</v>
+      </c>
       <c r="E471" s="9"/>
       <c r="F471" s="20"/>
       <c r="G471" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H471" s="39">
-        <v>5</v>
-      </c>
+      <c r="H471" s="39"/>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
       <c r="K471" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C472" s="13"/>
-      <c r="D472" s="39">
-        <v>6</v>
-      </c>
+      <c r="D472" s="39"/>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
       <c r="G472" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H472" s="39"/>
+      <c r="H472" s="39">
+        <v>14</v>
+      </c>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="40"/>
-      <c r="B473" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C473" s="13"/>
+      <c r="A473" s="40">
+        <v>45168</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D473" s="39"/>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H473" s="39">
-        <v>14</v>
-      </c>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20" t="s">
-        <v>193</v>
-      </c>
+      <c r="K473" s="20"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="B474" s="20"/>
-      <c r="C474" s="13"/>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D474" s="39"/>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
@@ -13414,16 +13437,18 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45170</v>
+        <v>45229</v>
       </c>
       <c r="B475" s="20"/>
-      <c r="C475" s="13"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H475" s="39"/>
       <c r="I475" s="9"/>
@@ -13432,16 +13457,18 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45200</v>
+        <v>45260</v>
       </c>
       <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D476" s="39"/>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
@@ -13450,28 +13477,30 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B477" s="20"/>
-      <c r="C477" s="13"/>
-      <c r="D477" s="39"/>
-      <c r="E477" s="9"/>
-      <c r="F477" s="20"/>
-      <c r="G477" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H477" s="39"/>
-      <c r="I477" s="9"/>
-      <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
+        <v>45290</v>
+      </c>
+      <c r="B477" s="15"/>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D477" s="43"/>
+      <c r="E477" s="56"/>
+      <c r="F477" s="15"/>
+      <c r="G477" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H477" s="43"/>
+      <c r="I477" s="56"/>
+      <c r="J477" s="12"/>
+      <c r="K477" s="15"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="40">
-        <v>45261</v>
+      <c r="A478" s="49" t="s">
+        <v>194</v>
       </c>
       <c r="B478" s="15"/>
-      <c r="C478" s="42"/>
+      <c r="C478" s="13"/>
       <c r="D478" s="43"/>
       <c r="E478" s="56"/>
       <c r="F478" s="15"/>
@@ -13486,16 +13515,18 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45292</v>
+        <v>45321</v>
       </c>
       <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D479" s="39"/>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
@@ -13504,16 +13535,18 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D480" s="39"/>
       <c r="E480" s="9"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H480" s="39"/>
       <c r="I480" s="9"/>
@@ -13522,16 +13555,18 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45352</v>
+        <v>45381</v>
       </c>
       <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="39"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
@@ -13540,7 +13575,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -13558,7 +13593,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45413</v>
+        <v>45442</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -13576,7 +13611,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -13594,7 +13629,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45474</v>
+        <v>45503</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13612,7 +13647,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45505</v>
+        <v>45534</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -13630,7 +13665,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -13648,7 +13683,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45566</v>
+        <v>45595</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13666,7 +13701,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -13684,7 +13719,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45627</v>
+        <v>45656</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -13702,7 +13737,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45658</v>
+        <v>45687</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13720,7 +13755,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13738,7 +13773,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45717</v>
+        <v>45746</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13756,7 +13791,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13774,7 +13809,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45778</v>
+        <v>45807</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13792,7 +13827,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13810,7 +13845,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45839</v>
+        <v>45868</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13828,7 +13863,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45870</v>
+        <v>45899</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13846,7 +13881,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13864,7 +13899,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45931</v>
+        <v>45960</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14570,7 +14605,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>548.25</v>
+        <v>562.75</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
